--- a/BAX.xlsx
+++ b/BAX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D4D59-B030-4852-BB5A-5197BC14A836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F771D-8D9F-4E71-859F-7F8837E1FF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51540" yWindow="0" windowWidth="29055" windowHeight="20880" xr2:uid="{8E622A12-89D5-4A8A-9166-8A6C16BEE693}"/>
+    <workbookView xWindow="2310" yWindow="1575" windowWidth="29250" windowHeight="18735" xr2:uid="{8E622A12-89D5-4A8A-9166-8A6C16BEE693}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Price</t>
   </si>
@@ -163,6 +163,81 @@
   </si>
   <si>
     <t>Interest</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>12/13/21: closed Hill-Rom for 10.5B</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Impairments</t>
   </si>
 </sst>
 </file>
@@ -246,6 +321,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9933C3-0E1A-124B-1C7C-0D3A669F8CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8341895" y="25066"/>
+          <a:ext cx="0" cy="7915776"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,23 +675,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E077CF8-8225-4BD7-96A2-952427347746}">
-  <dimension ref="J2:L10"/>
+  <dimension ref="H2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>53.74</v>
-      </c>
-    </row>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.2">
+        <v>45.43</v>
+      </c>
+    </row>
+    <row r="3" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -572,16 +702,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>27091.449588660002</v>
-      </c>
-    </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.2">
+        <v>22902.206081370001</v>
+      </c>
+    </row>
+    <row r="5" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -592,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -604,17 +734,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>41918.449588660005</v>
-      </c>
-    </row>
-    <row r="10" spans="10:12" x14ac:dyDescent="0.2">
+        <v>37729.206081370001</v>
+      </c>
+    </row>
+    <row r="10" spans="8:12" x14ac:dyDescent="0.2">
       <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -623,13 +758,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3819B66A-6152-46D1-A33C-2DF4BA504DB9}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="N58" sqref="K58:N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -691,13 +826,17 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>964</v>
+      </c>
       <c r="I3" s="5">
         <v>981</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>931</v>
+      </c>
       <c r="M3" s="5">
         <v>942</v>
       </c>
@@ -712,13 +851,17 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>697</v>
+      </c>
       <c r="I4" s="5">
         <v>747</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>710</v>
+      </c>
       <c r="M4" s="5">
         <v>725</v>
       </c>
@@ -733,13 +876,17 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>546</v>
+      </c>
       <c r="I5" s="5">
         <v>589</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <v>528</v>
+      </c>
       <c r="M5" s="5">
         <v>525</v>
       </c>
@@ -754,13 +901,17 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>237</v>
+      </c>
       <c r="I6" s="5">
         <v>244</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>230</v>
+      </c>
       <c r="M6" s="5">
         <v>231</v>
       </c>
@@ -775,13 +926,17 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>256</v>
+      </c>
       <c r="I7" s="5">
         <v>249</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>263</v>
+      </c>
       <c r="M7" s="5">
         <v>247</v>
       </c>
@@ -796,13 +951,17 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>188</v>
+      </c>
       <c r="I8" s="5">
         <v>185</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <v>173</v>
+      </c>
       <c r="M8" s="5">
         <v>158</v>
       </c>
@@ -817,13 +976,17 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>183</v>
+      </c>
       <c r="I9" s="5">
         <v>206</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>163</v>
+      </c>
       <c r="M9" s="5">
         <v>172</v>
       </c>
@@ -838,13 +1001,17 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
       <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>364</v>
+      </c>
       <c r="M10" s="5">
         <v>380</v>
       </c>
@@ -859,13 +1026,17 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
       <c r="I11" s="5">
         <v>0</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <v>282</v>
+      </c>
       <c r="M11" s="5">
         <v>279</v>
       </c>
@@ -880,13 +1051,17 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
       <c r="I12" s="5">
         <v>0</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>69</v>
+      </c>
       <c r="M12" s="5">
         <v>76</v>
       </c>
@@ -901,13 +1076,17 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>27</v>
+      </c>
       <c r="I13" s="5">
         <v>25</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <v>33</v>
+      </c>
       <c r="M13" s="5">
         <v>38</v>
       </c>
@@ -921,15 +1100,25 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7">
+        <v>2946</v>
+      </c>
+      <c r="H14" s="7">
+        <f>SUM(H3:H13)</f>
+        <v>3098</v>
+      </c>
       <c r="I14" s="7">
         <f>SUM(I3:I13)</f>
         <v>3226</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="7">
+        <v>3707</v>
+      </c>
+      <c r="L14" s="7">
+        <f>SUM(L3:L13)</f>
+        <v>3746</v>
+      </c>
       <c r="M14" s="7">
         <f>SUM(M3:M13)</f>
         <v>3773</v>
@@ -944,14 +1133,22 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="5">
+        <v>1801</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1865</v>
+      </c>
       <c r="I15" s="5">
         <v>1905</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="5">
+        <v>2359</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2293</v>
+      </c>
       <c r="M15" s="5">
         <v>2640</v>
       </c>
@@ -965,143 +1162,906 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5">
+        <f>+G14-G15</f>
+        <v>1145</v>
+      </c>
+      <c r="H16" s="5">
+        <f>+H14-H15</f>
+        <v>1233</v>
+      </c>
       <c r="I16" s="5">
         <f>+I14-I15</f>
         <v>1321</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="K16" s="5">
+        <v>1348</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" ref="L16" si="0">+L14-L15</f>
+        <v>1453</v>
+      </c>
       <c r="M16" s="5">
         <f>+M14-M15</f>
         <v>1133</v>
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="2">
+      <c r="G17" s="5">
+        <v>627</v>
+      </c>
+      <c r="H17" s="5">
+        <v>675</v>
+      </c>
+      <c r="I17" s="5">
         <v>680</v>
       </c>
-      <c r="M17" s="2">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
+        <v>1052</v>
+      </c>
+      <c r="L17" s="5">
+        <v>976</v>
+      </c>
+      <c r="M17" s="5">
         <v>947</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="2">
+      <c r="G18" s="5">
+        <v>128</v>
+      </c>
+      <c r="H18" s="5">
+        <v>139</v>
+      </c>
+      <c r="I18" s="5">
         <v>129</v>
       </c>
-      <c r="M18" s="2">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
+        <v>150</v>
+      </c>
+      <c r="L18" s="5">
+        <v>148</v>
+      </c>
+      <c r="M18" s="5">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="2">
+      <c r="G19" s="5">
+        <f>+G17+G18</f>
+        <v>755</v>
+      </c>
+      <c r="H19" s="5">
+        <f>+H17+H18</f>
+        <v>814</v>
+      </c>
+      <c r="I19" s="5">
         <f>+I17+I18</f>
         <v>809</v>
       </c>
-      <c r="M19" s="2">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5">
+        <f t="shared" ref="K19:L19" si="1">+K17+K18</f>
+        <v>1202</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="1"/>
+        <v>1124</v>
+      </c>
+      <c r="M19" s="5">
         <f>+M17+M18</f>
         <v>1099</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="G20" s="5">
+        <f>+G16-G19</f>
+        <v>390</v>
+      </c>
+      <c r="H20" s="5">
+        <f>+H16-H19</f>
+        <v>419</v>
       </c>
       <c r="I20" s="5">
         <f>+I16-I19</f>
         <v>512</v>
       </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5">
+        <f t="shared" ref="K20:L20" si="2">+K16-K19</f>
+        <v>146</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
       <c r="M20" s="5">
         <f>+M16-M19</f>
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="2">
+      <c r="G21" s="5">
+        <f>-34-5</f>
+        <v>-39</v>
+      </c>
+      <c r="H21" s="5">
+        <f>-34+2+5</f>
+        <v>-27</v>
+      </c>
+      <c r="I21" s="5">
         <f>-50-12</f>
         <v>-62</v>
       </c>
-      <c r="M21" s="2">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5">
+        <f>17-85+16</f>
+        <v>-52</v>
+      </c>
+      <c r="L21" s="5">
+        <f>-89+44+11</f>
+        <v>-34</v>
+      </c>
+      <c r="M21" s="5">
         <f>-104-63</f>
         <v>-167</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>34</v>
+      </c>
+      <c r="G22" s="5">
+        <f>+G20+G21</f>
+        <v>351</v>
+      </c>
+      <c r="H22" s="5">
+        <f>+H20+H21</f>
+        <v>392</v>
       </c>
       <c r="I22" s="5">
         <f>+I20+I21</f>
         <v>450</v>
       </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5">
+        <f t="shared" ref="K22:L22" si="3">+K20+K21</f>
+        <v>94</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="3"/>
+        <v>295</v>
+      </c>
       <c r="M22" s="5">
         <f>+M20+M21</f>
         <v>-133</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="2">
+      <c r="G23" s="5">
+        <f>51+2</f>
+        <v>53</v>
+      </c>
+      <c r="H23" s="5">
+        <f>91+3</f>
+        <v>94</v>
+      </c>
+      <c r="I23" s="5">
         <f>-2+1</f>
         <v>-1</v>
       </c>
-      <c r="M23" s="2">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5">
+        <f>21+2</f>
+        <v>23</v>
+      </c>
+      <c r="L23" s="5">
+        <f>40+3</f>
+        <v>43</v>
+      </c>
+      <c r="M23" s="5">
         <f>32-3</f>
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>32</v>
       </c>
+      <c r="G24" s="5">
+        <f t="shared" ref="G24:I24" si="4">+G22-G23</f>
+        <v>298</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
       <c r="I24" s="5">
-        <f>+I22+I23</f>
-        <v>449</v>
+        <f t="shared" si="4"/>
+        <v>451</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
+        <f>+K22-K23</f>
+        <v>71</v>
+      </c>
+      <c r="L24" s="5">
+        <f>+L22-L23</f>
+        <v>252</v>
       </c>
       <c r="M24" s="5">
-        <f>+M22+M23</f>
-        <v>-104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+        <f>+M22-M23</f>
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>31</v>
       </c>
+      <c r="G25" s="8">
+        <f>+G24/G26</f>
+        <v>0.58317025440313108</v>
+      </c>
+      <c r="H25" s="8">
+        <f>+H24/H26</f>
+        <v>0.58546168958742628</v>
+      </c>
       <c r="I25" s="8">
         <f>+I24/I26</f>
-        <v>0.88735177865612647</v>
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" ref="K25:L25" si="5">+K24/K26</f>
+        <v>0.13948919449901767</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="5"/>
+        <v>0.49606299212598426</v>
       </c>
       <c r="M25" s="8">
         <f>+M24/M26</f>
-        <v>-0.20634920634920634</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-0.32142857142857145</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>1</v>
       </c>
+      <c r="G26" s="2">
+        <v>511</v>
+      </c>
+      <c r="H26" s="2">
+        <v>509</v>
+      </c>
       <c r="I26" s="2">
         <v>506</v>
       </c>
+      <c r="K26" s="2">
+        <v>509</v>
+      </c>
+      <c r="L26" s="2">
+        <v>508</v>
+      </c>
       <c r="M26" s="2">
         <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
+        <v>2294</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1852</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1601</v>
+      </c>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
+        <v>2471</v>
+      </c>
+      <c r="L29" s="5">
+        <v>2473</v>
+      </c>
+      <c r="M29" s="5">
+        <v>2555</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5">
+        <v>2548</v>
+      </c>
+      <c r="L30" s="5">
+        <v>2663</v>
+      </c>
+      <c r="M30" s="5">
+        <v>2675</v>
+      </c>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5">
+        <v>860</v>
+      </c>
+      <c r="L31" s="5">
+        <v>894</v>
+      </c>
+      <c r="M31" s="5">
+        <v>979</v>
+      </c>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5">
+        <v>5114</v>
+      </c>
+      <c r="L32" s="5">
+        <v>4976</v>
+      </c>
+      <c r="M32" s="5">
+        <v>4799</v>
+      </c>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
+        <f>9816+7693</f>
+        <v>17509</v>
+      </c>
+      <c r="L33" s="5">
+        <f>9644+7459</f>
+        <v>17103</v>
+      </c>
+      <c r="M33" s="5">
+        <f>6639+6927</f>
+        <v>13566</v>
+      </c>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
+        <v>609</v>
+      </c>
+      <c r="L34" s="5">
+        <v>566</v>
+      </c>
+      <c r="M34" s="5">
+        <v>546</v>
+      </c>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
+        <v>1311</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1304</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1244</v>
+      </c>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
+        <f t="shared" ref="K36" si="6">SUM(K28:K35)</f>
+        <v>32716</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" ref="L36" si="7">SUM(L28:L35)</f>
+        <v>31831</v>
+      </c>
+      <c r="M36" s="5">
+        <f>SUM(M28:M35)</f>
+        <v>27965</v>
+      </c>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
+        <f>200+209+16765</f>
+        <v>17174</v>
+      </c>
+      <c r="L38" s="5">
+        <f>200+208+16278</f>
+        <v>16686</v>
+      </c>
+      <c r="M38" s="5">
+        <f>275+16153+4</f>
+        <v>16432</v>
+      </c>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5">
+        <v>1223</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1282</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1234</v>
+      </c>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5">
+        <v>2258</v>
+      </c>
+      <c r="L40" s="5">
+        <v>2226</v>
+      </c>
+      <c r="M40" s="5">
+        <v>2195</v>
+      </c>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5">
+        <v>508</v>
+      </c>
+      <c r="L41" s="5">
+        <v>470</v>
+      </c>
+      <c r="M41" s="5">
+        <v>454</v>
+      </c>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <v>2434</v>
+      </c>
+      <c r="L42" s="5">
+        <v>2264</v>
+      </c>
+      <c r="M42" s="5">
+        <v>2071</v>
+      </c>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5">
+        <v>9119</v>
+      </c>
+      <c r="L43" s="5">
+        <v>8903</v>
+      </c>
+      <c r="M43" s="5">
+        <v>5579</v>
+      </c>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5">
+        <f t="shared" ref="K44:L44" si="8">SUM(K38:K43)</f>
+        <v>32716</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="8"/>
+        <v>31831</v>
+      </c>
+      <c r="M44" s="5">
+        <f>SUM(M38:M43)</f>
+        <v>27965</v>
+      </c>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="5">
+        <f>+K24</f>
+        <v>71</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" ref="L46:M46" si="9">+L24</f>
+        <v>252</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="9"/>
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="5">
+        <v>73</v>
+      </c>
+      <c r="L47" s="5">
+        <f>328-K47</f>
+        <v>255</v>
+      </c>
+      <c r="M47" s="5">
+        <f>-2606-L47-K47</f>
+        <v>-2934</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="5">
+        <v>380</v>
+      </c>
+      <c r="L48" s="5">
+        <f>735-K48</f>
+        <v>355</v>
+      </c>
+      <c r="M48" s="5">
+        <f>1069-L48-K48</f>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="5">
+        <v>-55</v>
+      </c>
+      <c r="L49" s="5">
+        <f>-87-K49</f>
+        <v>-32</v>
+      </c>
+      <c r="M49" s="5">
+        <f>-174-L49-K49</f>
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="5">
+        <v>32</v>
+      </c>
+      <c r="L50" s="5">
+        <f>77-K50</f>
+        <v>45</v>
+      </c>
+      <c r="M50" s="5">
+        <f>122-L50-K50</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="5">
+        <v>14</v>
+      </c>
+      <c r="L51" s="5">
+        <f>28-K51</f>
+        <v>14</v>
+      </c>
+      <c r="M51" s="5">
+        <f>42-L51-K51</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5">
+        <f>332+2785-L52-K52</f>
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="5">
+        <v>-12</v>
+      </c>
+      <c r="L53" s="5">
+        <f>-41-K53</f>
+        <v>-29</v>
+      </c>
+      <c r="M53" s="5">
+        <f>54+65-35-L53-K53</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="5">
+        <f>153-105-13+5-221-43</f>
+        <v>-224</v>
+      </c>
+      <c r="L54" s="5">
+        <f>43-308-67+91-231-86-K54</f>
+        <v>-334</v>
+      </c>
+      <c r="M54" s="5">
+        <f>-116-410-98+84-250-92-L54-K54</f>
+        <v>-324</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="5">
+        <f>SUM(K47:K54)</f>
+        <v>208</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" ref="L55:M55" si="10">SUM(L47:L54)</f>
+        <v>274</v>
+      </c>
+      <c r="M55" s="5">
+        <f t="shared" si="10"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" s="5">
+        <v>140</v>
+      </c>
+      <c r="L57" s="5">
+        <f>311-K57</f>
+        <v>171</v>
+      </c>
+      <c r="M57" s="5">
+        <f>479-L57-K57</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="5">
+        <f>+K55-K57</f>
+        <v>68</v>
+      </c>
+      <c r="L58" s="5">
+        <f>+L55-L57</f>
+        <v>103</v>
+      </c>
+      <c r="M58" s="5">
+        <f>+M55-M57</f>
+        <v>122</v>
+      </c>
+      <c r="N58" s="5">
+        <f>+M58+50</f>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1110,5 +2070,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BAX.xlsx
+++ b/BAX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F771D-8D9F-4E71-859F-7F8837E1FF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5068B7-97F7-48A7-8FBF-28F1443C9BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1575" windowWidth="29250" windowHeight="18735" xr2:uid="{8E622A12-89D5-4A8A-9166-8A6C16BEE693}"/>
+    <workbookView xWindow="-37470" yWindow="1440" windowWidth="27420" windowHeight="18435" activeTab="1" xr2:uid="{8E622A12-89D5-4A8A-9166-8A6C16BEE693}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -238,12 +238,36 @@
   </si>
   <si>
     <t>Impairments</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -311,7 +335,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B8B57EED-31EC-48BE-AC93-564D96170282}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -335,7 +361,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>20053</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>80210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -379,9 +405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +445,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E077CF8-8225-4BD7-96A2-952427347746}">
   <dimension ref="H2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -688,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>45.43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="8:12" x14ac:dyDescent="0.2">
@@ -696,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>504.12075900000002</v>
+        <v>510</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="8:12" x14ac:dyDescent="0.2">
@@ -708,7 +734,7 @@
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>22902.206081370001</v>
+        <v>19380</v>
       </c>
     </row>
     <row r="5" spans="8:12" x14ac:dyDescent="0.2">
@@ -716,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <v>1601</v>
+        <v>2095</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="8:12" x14ac:dyDescent="0.2">
@@ -727,11 +753,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="3">
-        <f>275+16153</f>
-        <v>16428</v>
+        <v>12904</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="8:12" x14ac:dyDescent="0.2">
@@ -740,7 +765,7 @@
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>37729.206081370001</v>
+        <v>30189</v>
       </c>
     </row>
     <row r="10" spans="8:12" x14ac:dyDescent="0.2">
@@ -758,13 +783,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3819B66A-6152-46D1-A33C-2DF4BA504DB9}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N58" sqref="K58:N58"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -774,12 +799,12 @@
     <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -816,8 +841,32 @@
       <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
@@ -842,7 +891,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -867,7 +916,7 @@
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -892,7 +941,7 @@
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
@@ -917,7 +966,7 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -942,7 +991,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -967,7 +1016,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -992,7 +1041,7 @@
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1066,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1091,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1067,7 +1116,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1092,7 +1141,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1124,8 +1173,14 @@
         <v>3773</v>
       </c>
       <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="6">
+        <v>3707</v>
+      </c>
+      <c r="T14" s="6">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1154,7 +1209,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +1243,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1212,7 +1267,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
@@ -1236,7 +1291,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1321,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
@@ -1296,7 +1351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1326,7 +1381,7 @@
         <v>-167</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>34</v>
       </c>
@@ -1356,7 +1411,7 @@
         <v>-133</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -1386,7 +1441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -1416,7 +1471,7 @@
         <v>-162</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -1445,7 +1500,7 @@
         <v>-0.32142857142857145</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>1</v>
       </c>
@@ -1468,32 +1523,15 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <f>+T29-T39</f>
+        <v>-10809</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5">
-        <v>2294</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1852</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1601</v>
-      </c>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1504,19 +1542,22 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5">
-        <v>2471</v>
+        <v>2294</v>
       </c>
       <c r="L29" s="5">
-        <v>2473</v>
+        <v>1852</v>
       </c>
       <c r="M29" s="5">
-        <v>2555</v>
+        <v>1601</v>
       </c>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1527,19 +1568,22 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5">
-        <v>2548</v>
+        <v>2471</v>
       </c>
       <c r="L30" s="5">
-        <v>2663</v>
+        <v>2473</v>
       </c>
       <c r="M30" s="5">
-        <v>2675</v>
+        <v>2555</v>
       </c>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1550,19 +1594,22 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5">
-        <v>860</v>
+        <v>2548</v>
       </c>
       <c r="L31" s="5">
-        <v>894</v>
+        <v>2663</v>
       </c>
       <c r="M31" s="5">
-        <v>979</v>
+        <v>2675</v>
       </c>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1573,19 +1620,22 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5">
-        <v>5114</v>
+        <v>860</v>
       </c>
       <c r="L32" s="5">
-        <v>4976</v>
+        <v>894</v>
       </c>
       <c r="M32" s="5">
-        <v>4799</v>
+        <v>979</v>
       </c>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1596,22 +1646,22 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5">
-        <f>9816+7693</f>
-        <v>17509</v>
+        <v>5114</v>
       </c>
       <c r="L33" s="5">
-        <f>9644+7459</f>
-        <v>17103</v>
+        <v>4976</v>
       </c>
       <c r="M33" s="5">
-        <f>6639+6927</f>
-        <v>13566</v>
+        <v>4799</v>
       </c>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1622,19 +1672,26 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5">
-        <v>609</v>
+        <f>9816+7693</f>
+        <v>17509</v>
       </c>
       <c r="L34" s="5">
-        <v>566</v>
+        <f>9644+7459</f>
+        <v>17103</v>
       </c>
       <c r="M34" s="5">
-        <v>546</v>
+        <f>6639+6927</f>
+        <v>13566</v>
       </c>
       <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <f>6001+5741</f>
+        <v>11742</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1645,19 +1702,22 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5">
-        <v>1311</v>
+        <v>609</v>
       </c>
       <c r="L35" s="5">
-        <v>1304</v>
+        <v>566</v>
       </c>
       <c r="M35" s="5">
-        <v>1244</v>
+        <v>546</v>
       </c>
       <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1668,20 +1728,23 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5">
-        <f t="shared" ref="K36" si="6">SUM(K28:K35)</f>
-        <v>32716</v>
+        <v>1311</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" ref="L36" si="7">SUM(L28:L35)</f>
-        <v>31831</v>
+        <v>1304</v>
       </c>
       <c r="M36" s="5">
-        <f>SUM(M28:M35)</f>
-        <v>27965</v>
+        <v>1244</v>
       </c>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T36" s="3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1690,15 +1753,25 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="K37" s="5">
+        <f t="shared" ref="K37" si="6">SUM(K29:K36)</f>
+        <v>32716</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" ref="L37" si="7">SUM(L29:L36)</f>
+        <v>31831</v>
+      </c>
+      <c r="M37" s="5">
+        <f>SUM(M29:M36)</f>
+        <v>27965</v>
+      </c>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="T37" s="3">
+        <f>SUM(T29:T36)</f>
+        <v>26312</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1707,23 +1780,14 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5">
-        <f>200+209+16765</f>
-        <v>17174</v>
-      </c>
-      <c r="L38" s="5">
-        <f>200+208+16278</f>
-        <v>16686</v>
-      </c>
-      <c r="M38" s="5">
-        <f>275+16153+4</f>
-        <v>16432</v>
-      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1734,19 +1798,26 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5">
-        <v>1223</v>
+        <f>200+209+16765</f>
+        <v>17174</v>
       </c>
       <c r="L39" s="5">
-        <v>1282</v>
+        <f>200+208+16278</f>
+        <v>16686</v>
       </c>
       <c r="M39" s="5">
-        <v>1234</v>
+        <f>275+16153+4</f>
+        <v>16432</v>
       </c>
       <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T39" s="3">
+        <f>2468+10436</f>
+        <v>12904</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1757,19 +1828,22 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5">
-        <v>2258</v>
+        <v>1223</v>
       </c>
       <c r="L40" s="5">
-        <v>2226</v>
+        <v>1282</v>
       </c>
       <c r="M40" s="5">
-        <v>2195</v>
+        <v>1234</v>
       </c>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T40" s="3">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1780,19 +1854,22 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5">
-        <v>508</v>
+        <v>2258</v>
       </c>
       <c r="L41" s="5">
-        <v>470</v>
+        <v>2226</v>
       </c>
       <c r="M41" s="5">
-        <v>454</v>
+        <v>2195</v>
       </c>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1803,19 +1880,22 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5">
-        <v>2434</v>
+        <v>508</v>
       </c>
       <c r="L42" s="5">
-        <v>2264</v>
+        <v>470</v>
       </c>
       <c r="M42" s="5">
-        <v>2071</v>
+        <v>454</v>
       </c>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1826,19 +1906,22 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5">
-        <v>9119</v>
+        <v>2434</v>
       </c>
       <c r="L43" s="5">
-        <v>8903</v>
+        <v>2264</v>
       </c>
       <c r="M43" s="5">
-        <v>5579</v>
+        <v>2071</v>
       </c>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1849,218 +1932,248 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5">
-        <f t="shared" ref="K44:L44" si="8">SUM(K38:K43)</f>
+        <v>9119</v>
+      </c>
+      <c r="L44" s="5">
+        <v>8903</v>
+      </c>
+      <c r="M44" s="5">
+        <v>5579</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="T44" s="3">
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5">
+        <f t="shared" ref="K45:L45" si="8">SUM(K39:K44)</f>
         <v>32716</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L45" s="5">
         <f t="shared" si="8"/>
         <v>31831</v>
       </c>
-      <c r="M44" s="5">
-        <f>SUM(M38:M43)</f>
+      <c r="M45" s="5">
+        <f>SUM(M39:M44)</f>
         <v>27965</v>
       </c>
-      <c r="N44" s="5"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
+      <c r="N45" s="5"/>
+      <c r="T45" s="3">
+        <f>SUM(T39:T44)</f>
+        <v>26312</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K47" s="5">
         <f>+K24</f>
         <v>71</v>
       </c>
-      <c r="L46" s="5">
-        <f t="shared" ref="L46:M46" si="9">+L24</f>
+      <c r="L47" s="5">
+        <f t="shared" ref="L47:M47" si="9">+L24</f>
         <v>252</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M47" s="5">
         <f t="shared" si="9"/>
         <v>-162</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K48" s="5">
         <v>73</v>
       </c>
-      <c r="L47" s="5">
-        <f>328-K47</f>
+      <c r="L48" s="5">
+        <f>328-K48</f>
         <v>255</v>
       </c>
-      <c r="M47" s="5">
-        <f>-2606-L47-K47</f>
+      <c r="M48" s="5">
+        <f>-2606-L48-K48</f>
         <v>-2934</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="5">
-        <v>380</v>
-      </c>
-      <c r="L48" s="5">
-        <f>735-K48</f>
-        <v>355</v>
-      </c>
-      <c r="M48" s="5">
-        <f>1069-L48-K48</f>
-        <v>334</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49" s="5">
-        <v>-55</v>
+        <v>380</v>
       </c>
       <c r="L49" s="5">
-        <f>-87-K49</f>
-        <v>-32</v>
+        <f>735-K49</f>
+        <v>355</v>
       </c>
       <c r="M49" s="5">
-        <f>-174-L49-K49</f>
-        <v>-87</v>
+        <f>1069-L49-K49</f>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K50" s="5">
-        <v>32</v>
+        <v>-55</v>
       </c>
       <c r="L50" s="5">
-        <f>77-K50</f>
-        <v>45</v>
+        <f>-87-K50</f>
+        <v>-32</v>
       </c>
       <c r="M50" s="5">
-        <f>122-L50-K50</f>
-        <v>45</v>
+        <f>-174-L50-K50</f>
+        <v>-87</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K51" s="5">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L51" s="5">
-        <f>28-K51</f>
-        <v>14</v>
+        <f>77-K51</f>
+        <v>45</v>
       </c>
       <c r="M51" s="5">
-        <f>42-L51-K51</f>
-        <v>14</v>
+        <f>122-L51-K51</f>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K52" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L52" s="5">
-        <v>0</v>
+        <f>28-K52</f>
+        <v>14</v>
       </c>
       <c r="M52" s="5">
-        <f>332+2785-L52-K52</f>
-        <v>3117</v>
+        <f>42-L52-K52</f>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="K53" s="5">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L53" s="5">
-        <f>-41-K53</f>
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="M53" s="5">
-        <f>54+65-35-L53-K53</f>
-        <v>125</v>
+        <f>332+2785-L53-K53</f>
+        <v>3117</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="5">
+        <v>-12</v>
+      </c>
+      <c r="L54" s="5">
+        <f>-41-K54</f>
+        <v>-29</v>
+      </c>
+      <c r="M54" s="5">
+        <f>54+65-35-L54-K54</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K55" s="5">
         <f>153-105-13+5-221-43</f>
         <v>-224</v>
       </c>
-      <c r="L54" s="5">
-        <f>43-308-67+91-231-86-K54</f>
+      <c r="L55" s="5">
+        <f>43-308-67+91-231-86-K55</f>
         <v>-334</v>
       </c>
-      <c r="M54" s="5">
-        <f>-116-410-98+84-250-92-L54-K54</f>
+      <c r="M55" s="5">
+        <f>-116-410-98+84-250-92-L55-K55</f>
         <v>-324</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>60</v>
       </c>
-      <c r="K55" s="5">
-        <f>SUM(K47:K54)</f>
+      <c r="K56" s="5">
+        <f>SUM(K48:K55)</f>
         <v>208</v>
       </c>
-      <c r="L55" s="5">
-        <f t="shared" ref="L55:M55" si="10">SUM(L47:L54)</f>
+      <c r="L56" s="5">
+        <f t="shared" ref="L56:M56" si="10">SUM(L48:L55)</f>
         <v>274</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M56" s="5">
         <f t="shared" si="10"/>
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="K56" s="5"/>
-    </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="K57" s="5">
-        <v>140</v>
-      </c>
-      <c r="L57" s="5">
-        <f>311-K57</f>
-        <v>171</v>
-      </c>
-      <c r="M57" s="5">
-        <f>479-L57-K57</f>
-        <v>168</v>
-      </c>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="5">
+        <v>140</v>
+      </c>
+      <c r="L58" s="5">
+        <f>311-K58</f>
+        <v>171</v>
+      </c>
+      <c r="M58" s="5">
+        <f>479-L58-K58</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="K58" s="5">
-        <f>+K55-K57</f>
+      <c r="K59" s="5">
+        <f>+K56-K58</f>
         <v>68</v>
       </c>
-      <c r="L58" s="5">
-        <f>+L55-L57</f>
+      <c r="L59" s="5">
+        <f>+L56-L58</f>
         <v>103</v>
       </c>
-      <c r="M58" s="5">
-        <f>+M55-M57</f>
+      <c r="M59" s="5">
+        <f>+M56-M58</f>
         <v>122</v>
       </c>
-      <c r="N58" s="5">
-        <f>+M58+50</f>
+      <c r="N59" s="5">
+        <f>+M59+50</f>
         <v>172</v>
       </c>
     </row>
